--- a/biology/Médecine/Cannabinol/Cannabinol.xlsx
+++ b/biology/Médecine/Cannabinol/Cannabinol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabinol aussi connu sous le nom de CBN est un cannabinoïde qui n'est pas présent dans la plante fraîche ni produite directement par celle-ci, mais sa concentration augmente avec l'exposition à la lumière et à l'air car il s'agit d'un produit issu de l'oxydation du tétrahydrocannabinol (THC).
 Il s'agit d'un puissant  sédatif naturel et efficace globalement par effet d’entourage qui agit rapidement et qui n’a pas d’action sur l’humeur et l’énergie, sa valeur symbolique est un facteur d’aggravation des dépressions sans accoutumance ni dépendance physique.C'est également un cannabinoïde très légèrement psycho-actif et 10 fois moins puissant que le THC.
@@ -517,7 +529,9 @@
           <t>Réalité des effets sédatifs du CBN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CBN est parfois appelé le « cannabinoïde endormi », mais la science ne soutient pas totalement cette affirmation. Le CBN est connu selon des rapports anecdotiques comme provoquant des effets sédatifs, en particulier s'il est combiné avec du THC dans des variétés indica, qui sont supposées être plus sédatives que les sativas en raison de leur profil en cannabinoïdes et en terpènes. Cependant, dans les années 1970, une étude à petite échelle sur l'homme avec une administration orale de CBN seul, de CBN avec du THC et de THC seul a trouvé que la combinaison de ces deux cannabinoïdes produisait des niveaux de vertige et de somnolence plus élevés qu'avec le THC seul, alors que le CBN seul ne rendait les sujets ni somnolents, ni planants[réf. nécessaire].
 Ce résultat a poussé les chercheurs à croire que le supposé effet narcotique du CBN était plutôt provoqué par la teneur plus élevée de terpènes sédatifs dans le cannabis vieilli, comme le myrcène et le linalol. Des recherches récentes désignent inversement le CBN comme le sédatif le plus efficace de tous les cannabinoïdes, mais aucun de ces résultats ne devrait être considéré comme concluant. Le plus probable, dans certains cas, est que le CBN contribue à la sédation via l'effet entourage, avec les autres cannabinoïdes et terpènes qui renforcent l'efficacité globale[réf. nécessaire].
@@ -549,7 +563,9 @@
           <t>Biosynthèse des formes acides des cannabinoïdes primaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque le CBGA et le CBGVA sont combinés à des enzymes spécifiques (synthases à base d’acide), ils se transforment par biosynthèse en la forme acide de l’un des trois cannabinoïdes primaires : THC, CBD et CBC. Les nouvelles formules moléculaires sont très similaires à celles du CBGA et CBGVA, mais chaque nouveau cannabinoïde a perdu quelques atomes d’hydrogène. Tous les atomes de carbone et d’oxygène sont toujours présents :
 — CBGA + THCA-synthase = THCA ou acide tétrahydrocannabinolique
@@ -588,7 +604,9 @@
           <t>Dégradation au fil du temps</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les cannabinoïdes évoluent avec le temps et l’exposition à l'air. C’est le principe de dégradation. Cela peut se produire directement sur la plante ou avec la marijuanas curée si elle n’est pas stockée convenablement. La dégradation affaiblit même les têtes les plus puissantes tandis que les cannabinoïdes actifs se convertissent en leurs formes chimiques les moins désirables.
 Le passage de THC au CBN ne nécessite que l’élimination de quatre atomes d’hydrogène pour faire passer la formule C₂₂H₃₀O₂ à C₂₁H₂₆O₂. En revanche, pour passer du CBD au CBE ou canna-bielsoin, la formule change de manière différente. Le cannabinoïde récupère en fait un atome d’oxygène et devient C₂₁H₃₀O₃.
